--- a/MRR_Captiva_pop_size.xlsx
+++ b/MRR_Captiva_pop_size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iaeacloud-my.sharepoint.com/personal/d_carvalho_iaea_org/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="452" documentId="8_{9A242868-50E2-4C84-ACDE-BAB9DD941DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A11A2938-A6E0-4C9A-9320-893E3FDE28FB}"/>
+  <xr:revisionPtr revIDLastSave="535" documentId="8_{9A242868-50E2-4C84-ACDE-BAB9DD941DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9BC1AE36-C754-4B9B-AFD2-63B4FF45D4A6}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{6E33F946-DC3B-4BE6-AA9A-98EB5032E974}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{6E33F946-DC3B-4BE6-AA9A-98EB5032E974}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,10 +228,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -340,22 +340,22 @@
                     <c:v>10869.836223135964</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>15776.78950056585</c:v>
+                    <c:v>10928.056194058596</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>330132.18907335174</c:v>
+                    <c:v>687775.39390281553</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>605297.06241145986</c:v>
+                    <c:v>1551347.5472909322</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>180946.46809200093</c:v>
+                    <c:v>529638.92860376684</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>13385.403563990243</c:v>
+                    <c:v>39341.613275076452</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1895.2173442718406</c:v>
+                    <c:v>5631.6834627262579</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -370,22 +370,22 @@
                     <c:v>10869.836223135964</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>15776.78950056585</c:v>
+                    <c:v>10928.056194058596</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>330132.18907335174</c:v>
+                    <c:v>687775.39390281553</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>605297.06241145986</c:v>
+                    <c:v>1551347.5472909322</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>180946.46809200093</c:v>
+                    <c:v>529638.92860376684</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>13385.403563990243</c:v>
+                    <c:v>39341.613275076452</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1895.2173442718406</c:v>
+                    <c:v>5631.6834627262579</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -443,22 +443,22 @@
                   <c:v>27117.057425629246</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41046.565500392782</c:v>
+                  <c:v>28431.587703272038</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>248758.21859274618</c:v>
+                  <c:v>1302982.7403812781</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>446124.82355636708</c:v>
+                  <c:v>4451423.2263873806</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>544142.71827774204</c:v>
+                  <c:v>1592731.6479569634</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23461.994368948323</c:v>
+                  <c:v>68958.15316382036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2281.9393761292886</c:v>
+                  <c:v>14057.088269156369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -613,10 +613,10 @@
                   <c:v>18832.424799672634</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>428725.6945975197</c:v>
+                  <c:v>1102425.7683070616</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1048588.2969135132</c:v>
+                  <c:v>4138953.7287106751</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1358210.1708691223</c:v>
@@ -625,7 +625,7 @@
                   <c:v>34281.020292319685</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-22396.266050424718</c:v>
+                  <c:v>-15697.087804711133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,13 +1747,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3756782E-7F57-4F08-8C96-BCC80E3BF034}">
   <dimension ref="A1:Z110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="L86" sqref="L86"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
     <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1831,18 +1833,18 @@
       <c r="O3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12" t="s">
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1871,19 +1873,19 @@
         <v>0.33</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H9" si="0">LN(G4)</f>
+        <f>LN(G4)</f>
         <v>-1.1086626245216111</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I9" si="1">LOG(E4/F4)</f>
+        <f>LOG(E4/F4)</f>
         <v>0.51012151482258783</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J9" si="2">EXP(H4*A4)</f>
+        <f>EXP(H4*A4)</f>
         <v>0.33</v>
       </c>
       <c r="K4" s="1">
-        <f>LOG(10500)</f>
+        <f>LOG($G$2)</f>
         <v>4.0211892990699383</v>
       </c>
       <c r="L4" s="1">
@@ -1937,35 +1939,35 @@
         <v>35</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D9" si="3">SUM(B5:C5)</f>
+        <f t="shared" ref="D5:D9" si="0">SUM(B5:C5)</f>
         <v>122</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" ref="E5:E9" si="4">B5/D5</f>
+        <f t="shared" ref="E5:E9" si="1">B5/D5</f>
         <v>0.71311475409836067</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F9" si="5">C5/D5</f>
+        <f t="shared" ref="F5:F9" si="2">C5/D5</f>
         <v>0.28688524590163933</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G9" si="6">$B$2</f>
+        <f t="shared" ref="G5:G9" si="3">$B$2</f>
         <v>0.33</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H4:H9" si="4">LN(G5)</f>
         <v>-1.1086626245216111</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I4:I9" si="5">LOG(E5/F5)</f>
         <v>0.3954512082683429</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J4:J9" si="6">EXP(H5*A5)</f>
         <v>0.1089</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:K9" si="7">LOG(10500)</f>
+        <f t="shared" ref="K5:K9" si="7">LOG($G$2)</f>
         <v>4.0211892990699383</v>
       </c>
       <c r="L5" s="1">
@@ -2030,31 +2032,31 @@
         <v>23</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.41025641025641024</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.58974358974358976</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="E6" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="4"/>
-        <v>0.41025641025641024</v>
-      </c>
-      <c r="F6" s="3">
+        <v>-1.1086626245216111</v>
+      </c>
+      <c r="I6" s="1">
         <f t="shared" si="5"/>
-        <v>0.58974358974358976</v>
-      </c>
-      <c r="G6" s="1">
+        <v>-0.1576078533616681</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="6"/>
-        <v>0.33</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.1086626245216111</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.1576078533616681</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="2"/>
         <v>3.5937000000000004E-2</v>
       </c>
       <c r="K6" s="1">
@@ -2081,19 +2083,19 @@
       </c>
       <c r="S6" s="6">
         <f>M25</f>
-        <v>41046.565500392782</v>
+        <v>28431.587703272038</v>
       </c>
       <c r="T6" s="6">
         <f>M26</f>
-        <v>177.63619723115687</v>
+        <v>123.04267261544787</v>
       </c>
       <c r="U6" s="6">
         <f>M27</f>
-        <v>115462.6028183882</v>
+        <v>79977.09621887008</v>
       </c>
       <c r="V6">
         <f>STDEV(M16:M24)/SQRT(COUNT(M16:M24))</f>
-        <v>15776.78950056585</v>
+        <v>10928.056194058596</v>
       </c>
       <c r="W6" s="6">
         <f>O25</f>
@@ -2123,31 +2125,31 @@
         <v>12</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="E7" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="H7" s="1">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F7" s="3">
+        <v>-1.1086626245216111</v>
+      </c>
+      <c r="I7" s="1">
         <f t="shared" si="5"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="G7" s="1">
+        <v>-0.77815125038364363</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" si="6"/>
-        <v>0.33</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.1086626245216111</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.77815125038364363</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="2"/>
         <v>1.185921E-2</v>
       </c>
       <c r="K7" s="1">
@@ -2174,23 +2176,23 @@
       </c>
       <c r="S7" s="6">
         <f>M42</f>
-        <v>248758.21859274618</v>
+        <v>1302982.7403812781</v>
       </c>
       <c r="T7" s="6">
         <f>M43</f>
-        <v>4493.2428998121322</v>
+        <v>9360.9227079419325</v>
       </c>
       <c r="U7" s="6">
         <f>M44</f>
-        <v>979395.32996186707</v>
+        <v>7809284.1169741368</v>
       </c>
       <c r="V7">
         <f>STDEV(M31:M41)/SQRT(COUNT(M31:M41))</f>
-        <v>330132.18907335174</v>
+        <v>687775.39390281553</v>
       </c>
       <c r="W7" s="6">
         <f>O42</f>
-        <v>428725.6945975197</v>
+        <v>1102425.7683070616</v>
       </c>
       <c r="X7" s="6">
         <f>O43</f>
@@ -2198,7 +2200,7 @@
       </c>
       <c r="Y7" s="6">
         <f>O44</f>
-        <v>1734164.3900000001</v>
+        <v>6689686.7800000003</v>
       </c>
       <c r="Z7" cm="1">
         <f t="array" ref="Z7">STDEV(O31:O41)/_xlfn._xlws.SORT(COUNT(O31:O41))</f>
@@ -2216,31 +2218,31 @@
         <v>28</v>
       </c>
       <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.84848484848484851</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="E8" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="4"/>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="F8" s="3">
+        <v>-1.1086626245216111</v>
+      </c>
+      <c r="I8" s="1">
         <f t="shared" si="5"/>
-        <v>0.84848484848484851</v>
-      </c>
-      <c r="G8" s="1">
+        <v>-0.74818802700620035</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" si="6"/>
-        <v>0.33</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.1086626245216111</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.74818802700620035</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="2"/>
         <v>3.9135393000000003E-3</v>
       </c>
       <c r="K8" s="1">
@@ -2267,23 +2269,23 @@
       </c>
       <c r="S8" s="6">
         <f>M63</f>
-        <v>446124.82355636708</v>
+        <v>4451423.2263873806</v>
       </c>
       <c r="T8" s="6">
         <f>M64</f>
-        <v>3383.8063809868177</v>
+        <v>8672.5346208320243</v>
       </c>
       <c r="U8" s="6">
         <f>M65</f>
-        <v>1555333.7782089713</v>
+        <v>19214429.648558225</v>
       </c>
       <c r="V8">
         <f>STDEV(M49:M62)/SQRT(COUNT(M49:M62))</f>
-        <v>605297.06241145986</v>
+        <v>1551347.5472909322</v>
       </c>
       <c r="W8" s="6">
         <f>O63</f>
-        <v>1048588.2969135132</v>
+        <v>4138953.7287106751</v>
       </c>
       <c r="X8" s="6">
         <f>O64</f>
@@ -2291,7 +2293,7 @@
       </c>
       <c r="Y8" s="6">
         <f>O65</f>
-        <v>3701314.1357468572</v>
+        <v>17935202.768458799</v>
       </c>
       <c r="Z8" cm="1">
         <f t="array" ref="Z8">STDEV(O49:O62)/_xlfn._xlws.SORT(COUNT(O49:O62))</f>
@@ -2309,31 +2311,31 @@
         <v>14</v>
       </c>
       <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="E9" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="H9" s="1">
         <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="F9" s="3">
+        <v>-1.1086626245216111</v>
+      </c>
+      <c r="I9" s="1">
         <f t="shared" si="5"/>
-        <v>0.7</v>
-      </c>
-      <c r="G9" s="1">
+        <v>-0.36797678529459438</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="6"/>
-        <v>0.33</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.1086626245216111</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.36797678529459438</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="2"/>
         <v>1.291467969E-3</v>
       </c>
       <c r="K9" s="1">
@@ -2360,19 +2362,19 @@
       </c>
       <c r="S9" s="6">
         <f>M79</f>
-        <v>544142.71827774204</v>
+        <v>1592731.6479569634</v>
       </c>
       <c r="T9" s="6">
         <f>M80</f>
-        <v>7307.8938474711958</v>
+        <v>21390.55328649329</v>
       </c>
       <c r="U9" s="6">
         <f>M81</f>
-        <v>1563993.4381763507</v>
+        <v>4577883.2694201833</v>
       </c>
       <c r="V9">
         <f>STDEV(M70:M78)/SQRT(COUNT(M70:M78))</f>
-        <v>180946.46809200093</v>
+        <v>529638.92860376684</v>
       </c>
       <c r="W9" s="6">
         <f>O79</f>
@@ -2411,19 +2413,19 @@
       </c>
       <c r="S10" s="6">
         <f>M90</f>
-        <v>23461.994368948323</v>
+        <v>68958.15316382036</v>
       </c>
       <c r="T10" s="6">
         <f>M91</f>
-        <v>798.07308482128235</v>
+        <v>2345.6508067304389</v>
       </c>
       <c r="U10" s="6">
         <f>M92</f>
-        <v>61302.945124342492</v>
+        <v>180178.11328403169</v>
       </c>
       <c r="V10">
         <f>STDEV(M86:M89)/SQRT(COUNT(M86:M89))</f>
-        <v>13385.403563990243</v>
+        <v>39341.613275076452</v>
       </c>
       <c r="W10" s="6">
         <f>O90</f>
@@ -2462,23 +2464,23 @@
       </c>
       <c r="S11" s="6">
         <f>M108</f>
-        <v>2281.9393761292886</v>
+        <v>14057.088269156369</v>
       </c>
       <c r="T11" s="6">
         <f>M109</f>
-        <v>118.42413148743799</v>
+        <v>351.90012633710001</v>
       </c>
       <c r="U11" s="6">
         <f>M110</f>
-        <v>6999.2519752251792</v>
+        <v>62399.799375525341</v>
       </c>
       <c r="V11">
         <f>STDEV(M97:M107)/SQRT(COUNT(M97:M107))</f>
-        <v>1895.2173442718406</v>
+        <v>5631.6834627262579</v>
       </c>
       <c r="W11" s="6">
         <f>O108</f>
-        <v>-22396.266050424718</v>
+        <v>-15697.087804711133</v>
       </c>
       <c r="X11" s="6">
         <f>O109</f>
@@ -2486,7 +2488,7 @@
       </c>
       <c r="Y11" s="6">
         <f>O110</f>
-        <v>-9632.809534</v>
+        <v>28898.428602</v>
       </c>
       <c r="Z11" cm="1">
         <f t="array" ref="Z11">STDEV(O97:O107)/_xlfn._xlws.SORT(COUNT(O97:O107))</f>
@@ -2620,16 +2622,16 @@
         <v>0.33</v>
       </c>
       <c r="K16" s="1">
-        <f>LOG(10500)</f>
-        <v>4.0211892990699383</v>
+        <f>LOG($G$14)</f>
+        <v>3.8617135875714341</v>
       </c>
       <c r="L16" s="1">
         <f>-I16-J16+K16</f>
-        <v>2.3020232147054056</v>
+        <v>2.1425475032069015</v>
       </c>
       <c r="M16" s="5">
         <f>10^L16</f>
-        <v>200.45791769451358</v>
+        <v>138.85051765639963</v>
       </c>
       <c r="N16" s="1">
         <v>0.88656380000000001</v>
@@ -2678,16 +2680,16 @@
         <v>0.1089</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" ref="K17:K24" si="18">LOG(10500)</f>
-        <v>4.0211892990699383</v>
+        <f t="shared" ref="K17:K24" si="18">LOG($G$14)</f>
+        <v>3.8617135875714341</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" ref="L17:L21" si="19">-I17-J17+K17</f>
-        <v>2.2495314673883642</v>
+        <v>2.09005575588986</v>
       </c>
       <c r="M17" s="5">
         <f t="shared" ref="M17:M21" si="20">10^L17</f>
-        <v>177.63619723115687</v>
+        <v>123.04267261544787</v>
       </c>
       <c r="N17" s="1">
         <v>0.88656380000000001</v>
@@ -2737,15 +2739,15 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" si="18"/>
-        <v>4.0211892990699383</v>
+        <v>3.8617135875714341</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="19"/>
-        <v>3.2448896095756945</v>
+        <v>3.0854138980771904</v>
       </c>
       <c r="M18" s="5">
         <f t="shared" si="20"/>
-        <v>1757.476835837698</v>
+        <v>1217.3456216235777</v>
       </c>
       <c r="N18" s="1">
         <v>0.88656380000000001</v>
@@ -2795,15 +2797,15 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" si="18"/>
-        <v>4.0211892990699383</v>
+        <v>3.8617135875714341</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="19"/>
-        <v>3.5833613567976572</v>
+        <v>3.4238856452991531</v>
       </c>
       <c r="M19" s="5">
         <f t="shared" si="20"/>
-        <v>3831.4340702713976</v>
+        <v>2653.906666007988</v>
       </c>
       <c r="N19" s="1">
         <v>0.88656380000000001</v>
@@ -2853,15 +2855,15 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" si="18"/>
-        <v>4.0211892990699383</v>
+        <v>3.8617135875714341</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="19"/>
-        <v>4.581547190208501</v>
+        <v>4.4220714787099968</v>
       </c>
       <c r="M20" s="5">
         <f t="shared" si="20"/>
-        <v>38154.625064069995</v>
+        <v>26428.436961045816</v>
       </c>
       <c r="N20" s="1">
         <v>0.88656380000000001</v>
@@ -2911,15 +2913,15 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" si="18"/>
-        <v>4.0211892990699383</v>
+        <v>3.8617135875714341</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="19"/>
-        <v>4.3209278267649198</v>
+        <v>4.1614521152664157</v>
       </c>
       <c r="M21" s="5">
         <f t="shared" si="20"/>
-        <v>20937.644746559999</v>
+        <v>14502.80859445056</v>
       </c>
       <c r="N21" s="1">
         <v>0.88656380000000001</v>
@@ -2943,11 +2945,11 @@
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <f t="shared" si="17"/>
         <v>0.9</v>
       </c>
@@ -2969,15 +2971,15 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" si="18"/>
-        <v>4.0211892990699383</v>
+        <v>3.8617135875714341</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ref="L22:L24" si="24">-I22-J22+K22</f>
-        <v>4.9750056240794933</v>
+        <v>4.8155299125809892</v>
       </c>
       <c r="M22" s="5">
         <f t="shared" ref="M22:M24" si="25">10^L22</f>
-        <v>94407.310187942159</v>
+        <v>65392.79685684781</v>
       </c>
       <c r="N22" s="1">
         <v>0.88656380000000001</v>
@@ -3001,11 +3003,11 @@
         <f t="shared" si="15"/>
         <v>12</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <f t="shared" si="16"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <f t="shared" si="17"/>
         <v>0.91666666666666663</v>
       </c>
@@ -3027,15 +3029,15 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" si="18"/>
-        <v>4.0211892990699383</v>
+        <v>3.8617135875714341</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="24"/>
-        <v>5.0624413433663396</v>
+        <v>4.9029656318678345</v>
       </c>
       <c r="M23" s="5">
         <f t="shared" si="25"/>
-        <v>115462.6028183882</v>
+        <v>79977.09621887008</v>
       </c>
       <c r="N23" s="1">
         <v>0.88656380000000001</v>
@@ -3059,11 +3061,11 @@
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <f t="shared" si="17"/>
         <v>0.9</v>
       </c>
@@ -3085,15 +3087,15 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" si="18"/>
-        <v>4.0211892990699383</v>
+        <v>3.8617135875714341</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="24"/>
-        <v>4.9753853970248612</v>
+        <v>4.815909685526357</v>
       </c>
       <c r="M24" s="5">
         <f t="shared" si="25"/>
-        <v>94489.901665539917</v>
+        <v>65450.005220330648</v>
       </c>
       <c r="N24" s="1">
         <v>0.88656380000000001</v>
@@ -3109,7 +3111,7 @@
       </c>
       <c r="M25" s="5">
         <f>AVERAGE(M16:M24)</f>
-        <v>41046.565500392782</v>
+        <v>28431.587703272038</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>17</v>
@@ -3125,7 +3127,7 @@
       </c>
       <c r="M26" s="5">
         <f>MIN(M16:M24)</f>
-        <v>177.63619723115687</v>
+        <v>123.04267261544787</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>15</v>
@@ -3141,7 +3143,7 @@
       </c>
       <c r="M27" s="5">
         <f>MAX(M16:M24)</f>
-        <v>115462.6028183882</v>
+        <v>79977.09621887008</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>16</v>
@@ -3254,24 +3256,24 @@
         <v>-1.1086626245216111</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" ref="I31:I41" si="28">LOG(E31/F31)</f>
+        <f>LOG(E31/F31)</f>
         <v>3.8629402356130917E-2</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" ref="J31:J39" si="29">EXP(H31*A31)</f>
+        <f>EXP(H31*A31)</f>
         <v>0.33</v>
       </c>
       <c r="K31" s="1">
-        <f>LOG(10500)</f>
-        <v>4.0211892990699383</v>
+        <f>LOG($G$29)</f>
+        <v>4.3399480616943507</v>
       </c>
       <c r="L31" s="1">
         <f>-I31-J31+K31</f>
-        <v>3.6525598967138073</v>
+        <v>3.9713186593382197</v>
       </c>
       <c r="M31" s="5">
         <f>10^L31</f>
-        <v>4493.2428998121322</v>
+        <v>9360.9227079419325</v>
       </c>
       <c r="N31" s="1">
         <v>0.85902880000000004</v>
@@ -3292,15 +3294,15 @@
         <v>317</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" ref="D32:D41" si="30">SUM(B32:C32)</f>
+        <f t="shared" ref="D32:D41" si="28">SUM(B32:C32)</f>
         <v>634</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" ref="E32:E41" si="31">B32/D32</f>
+        <f t="shared" ref="E32:E41" si="29">B32/D32</f>
         <v>0.5</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" ref="F32:F41" si="32">C32/D32</f>
+        <f t="shared" ref="F32:F41" si="30">C32/D32</f>
         <v>0.5</v>
       </c>
       <c r="G32" s="1">
@@ -3312,24 +3314,24 @@
         <v>-1.1086626245216111</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="I31:I41" si="31">LOG(E32/F32)</f>
         <v>0</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="J31:J39" si="32">EXP(H32*A32)</f>
         <v>0.1089</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" ref="K32:K41" si="33">LOG(10500)</f>
-        <v>4.0211892990699383</v>
+        <f t="shared" ref="K32:K41" si="33">LOG($G$29)</f>
+        <v>4.3399480616943507</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" ref="L32:L39" si="34">-I32-J32+K32</f>
-        <v>3.9122892990699381</v>
+        <v>4.2310480616943504</v>
       </c>
       <c r="M32" s="5">
         <f t="shared" ref="M32:M39" si="35">10^L32</f>
-        <v>8171.2650726332167</v>
+        <v>17023.468901319182</v>
       </c>
       <c r="N32" s="1">
         <v>0.85902880000000004</v>
@@ -3350,15 +3352,15 @@
         <v>201</v>
       </c>
       <c r="D33" s="1">
+        <f t="shared" si="28"/>
+        <v>343</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="29"/>
+        <v>0.4139941690962099</v>
+      </c>
+      <c r="F33" s="3">
         <f t="shared" si="30"/>
-        <v>343</v>
-      </c>
-      <c r="E33" s="3">
-        <f t="shared" si="31"/>
-        <v>0.4139941690962099</v>
-      </c>
-      <c r="F33" s="3">
-        <f t="shared" si="32"/>
         <v>0.5860058309037901</v>
       </c>
       <c r="G33" s="1">
@@ -3370,24 +3372,24 @@
         <v>-1.1086626245216111</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-0.15090771303743239</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>3.5937000000000004E-2</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="33"/>
-        <v>4.0211892990699383</v>
+        <v>4.3399480616943507</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="34"/>
-        <v>4.1361600121073705</v>
+        <v>4.4549187747317829</v>
       </c>
       <c r="M33" s="5">
         <f t="shared" si="35"/>
-        <v>13682.32846491953</v>
+        <v>28504.850968582323</v>
       </c>
       <c r="N33" s="1">
         <v>0.85902880000000004</v>
@@ -3408,15 +3410,15 @@
         <v>792</v>
       </c>
       <c r="D34" s="1">
+        <f t="shared" si="28"/>
+        <v>1000</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="29"/>
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="F34" s="3">
         <f t="shared" si="30"/>
-        <v>1000</v>
-      </c>
-      <c r="E34" s="3">
-        <f t="shared" si="31"/>
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" si="32"/>
         <v>0.79200000000000004</v>
       </c>
       <c r="G34" s="1">
@@ -3428,24 +3430,24 @@
         <v>-1.1086626245216111</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-0.58066184662673204</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1.185921E-2</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="33"/>
-        <v>4.0211892990699383</v>
+        <v>4.3399480616943507</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="34"/>
-        <v>4.5899919356966699</v>
+        <v>4.9087506983210822</v>
       </c>
       <c r="M34" s="5">
         <f t="shared" si="35"/>
-        <v>38903.792098140351</v>
+        <v>81049.566871125644</v>
       </c>
       <c r="N34" s="1">
         <v>0.85902880000000004</v>
@@ -3466,15 +3468,15 @@
         <v>676</v>
       </c>
       <c r="D35" s="1">
+        <f t="shared" si="28"/>
+        <v>754</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="29"/>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="F35" s="3">
         <f t="shared" si="30"/>
-        <v>754</v>
-      </c>
-      <c r="E35" s="3">
-        <f t="shared" si="31"/>
-        <v>0.10344827586206896</v>
-      </c>
-      <c r="F35" s="3">
-        <f t="shared" si="32"/>
         <v>0.89655172413793105</v>
       </c>
       <c r="G35" s="1">
@@ -3486,24 +3488,24 @@
         <v>-1.1086626245216111</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-0.93785209325115559</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>3.9135393000000003E-3</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="33"/>
-        <v>4.0211892990699383</v>
+        <v>4.3399480616943507</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" si="34"/>
-        <v>4.9551278530210938</v>
+        <v>5.2738866156455062</v>
       </c>
       <c r="M35" s="5">
         <f t="shared" si="35"/>
-        <v>90183.659242347378</v>
+        <v>187882.62342155684</v>
       </c>
       <c r="N35" s="1">
         <v>0.85902880000000004</v>
@@ -3524,15 +3526,15 @@
         <v>1209</v>
       </c>
       <c r="D36" s="1">
+        <f t="shared" si="28"/>
+        <v>1277</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="29"/>
+        <v>5.3249804228660921E-2</v>
+      </c>
+      <c r="F36" s="3">
         <f t="shared" si="30"/>
-        <v>1277</v>
-      </c>
-      <c r="E36" s="3">
-        <f t="shared" si="31"/>
-        <v>5.3249804228660921E-2</v>
-      </c>
-      <c r="F36" s="3">
-        <f t="shared" si="32"/>
         <v>0.94675019577133912</v>
       </c>
       <c r="G36" s="1">
@@ -3544,24 +3546,24 @@
         <v>-1.1086626245216111</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-1.2499173881545356</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1.291467969E-3</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="33"/>
-        <v>4.0211892990699383</v>
+        <v>4.3399480616943507</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" si="34"/>
-        <v>5.2698152192554737</v>
+        <v>5.5885739818798861</v>
       </c>
       <c r="M36" s="5">
         <f t="shared" si="35"/>
-        <v>186129.50366611034</v>
+        <v>387769.79930439685</v>
       </c>
       <c r="N36" s="1">
         <v>0.85902880000000004</v>
@@ -3582,15 +3584,15 @@
         <v>1034</v>
       </c>
       <c r="D37" s="4">
+        <f t="shared" si="28"/>
+        <v>1064</v>
+      </c>
+      <c r="E37" s="12">
+        <f t="shared" si="29"/>
+        <v>2.819548872180451E-2</v>
+      </c>
+      <c r="F37" s="12">
         <f t="shared" si="30"/>
-        <v>1064</v>
-      </c>
-      <c r="E37" s="13">
-        <f t="shared" si="31"/>
-        <v>2.819548872180451E-2</v>
-      </c>
-      <c r="F37" s="13">
-        <f t="shared" si="32"/>
         <v>0.97180451127819545</v>
       </c>
       <c r="G37" s="1">
@@ -3602,24 +3604,24 @@
         <v>-1.1086626245216111</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-1.5373992840382613</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>4.2618442976999999E-4</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="33"/>
-        <v>4.0211892990699383</v>
+        <v>4.3399480616943507</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" si="34"/>
-        <v>5.5581623986784301</v>
+        <v>5.8769211613028425</v>
       </c>
       <c r="M37" s="5">
         <f t="shared" si="35"/>
-        <v>361545.03234937839</v>
+        <v>753218.8173945375</v>
       </c>
       <c r="N37" s="1">
         <v>0.85902880000000004</v>
@@ -3640,15 +3642,15 @@
         <v>1007</v>
       </c>
       <c r="D38" s="4">
+        <f t="shared" si="28"/>
+        <v>1026</v>
+      </c>
+      <c r="E38" s="12">
+        <f t="shared" si="29"/>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="F38" s="12">
         <f t="shared" si="30"/>
-        <v>1026</v>
-      </c>
-      <c r="E38" s="13">
-        <f t="shared" si="31"/>
-        <v>1.8518518518518517E-2</v>
-      </c>
-      <c r="F38" s="13">
-        <f t="shared" si="32"/>
         <v>0.98148148148148151</v>
       </c>
       <c r="G38" s="1">
@@ -3660,24 +3662,24 @@
         <v>-1.1086626245216111</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-1.7242758696007892</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1.4064086182409999E-4</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="33"/>
-        <v>4.0211892990699383</v>
+        <v>4.3399480616943507</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" si="34"/>
-        <v>5.7453245278089033</v>
+        <v>6.0640832904333157</v>
       </c>
       <c r="M38" s="5">
         <f t="shared" si="35"/>
-        <v>556319.81357950706</v>
+        <v>1158999.6116239717</v>
       </c>
       <c r="N38" s="1">
         <v>0.85902880000000004</v>
@@ -3698,15 +3700,15 @@
         <v>653</v>
       </c>
       <c r="D39" s="4">
+        <f t="shared" si="28"/>
+        <v>660</v>
+      </c>
+      <c r="E39" s="12">
+        <f t="shared" si="29"/>
+        <v>1.0606060606060607E-2</v>
+      </c>
+      <c r="F39" s="12">
         <f t="shared" si="30"/>
-        <v>660</v>
-      </c>
-      <c r="E39" s="13">
-        <f t="shared" si="31"/>
-        <v>1.0606060606060607E-2</v>
-      </c>
-      <c r="F39" s="13">
-        <f t="shared" si="32"/>
         <v>0.98939393939393938</v>
       </c>
       <c r="G39" s="1">
@@ -3718,24 +3720,24 @@
         <v>-1.1086626245216111</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-1.9698151412608171</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>4.6411484401953045E-5</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" si="33"/>
-        <v>4.0211892990699383</v>
+        <v>4.3399480616943507</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" si="34"/>
-        <v>5.9909580288463538</v>
+        <v>6.3097167914707661</v>
       </c>
       <c r="M39" s="5">
         <f t="shared" si="35"/>
-        <v>979395.32996186707</v>
+        <v>2040406.9374205577</v>
       </c>
       <c r="N39" s="1">
         <v>0.85902880000000004</v>
@@ -3756,15 +3758,15 @@
         <v>510</v>
       </c>
       <c r="D40" s="4">
+        <f t="shared" si="28"/>
+        <v>516</v>
+      </c>
+      <c r="E40" s="12">
+        <f t="shared" si="29"/>
+        <v>1.1627906976744186E-2</v>
+      </c>
+      <c r="F40" s="12">
         <f t="shared" si="30"/>
-        <v>516</v>
-      </c>
-      <c r="E40" s="13">
-        <f t="shared" si="31"/>
-        <v>1.1627906976744186E-2</v>
-      </c>
-      <c r="F40" s="13">
-        <f t="shared" si="32"/>
         <v>0.98837209302325579</v>
       </c>
       <c r="G40" s="1">
@@ -3776,7 +3778,7 @@
         <v>-1.1086626245216111</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-1.9294189257142926</v>
       </c>
       <c r="J40" s="1">
@@ -3785,15 +3787,15 @@
       </c>
       <c r="K40" s="1">
         <f t="shared" si="33"/>
-        <v>4.0211892990699383</v>
+        <v>4.3399480616943507</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" ref="L40:L41" si="39">-I40-J40+K40</f>
-        <v>5.9505929089943788</v>
+        <v>6.2693516716187911</v>
       </c>
       <c r="M40" s="5">
         <f t="shared" ref="M40:M41" si="40">10^L40</f>
-        <v>892468.52573084936</v>
+        <v>1859309.4286059341</v>
       </c>
       <c r="N40" s="1">
         <v>0.85902880000000004</v>
@@ -3814,15 +3816,15 @@
         <v>714</v>
       </c>
       <c r="D41" s="4">
+        <f t="shared" si="28"/>
+        <v>716</v>
+      </c>
+      <c r="E41" s="12">
+        <f t="shared" si="29"/>
+        <v>2.7932960893854749E-3</v>
+      </c>
+      <c r="F41" s="12">
         <f t="shared" si="30"/>
-        <v>716</v>
-      </c>
-      <c r="E41" s="13">
-        <f t="shared" si="31"/>
-        <v>2.7932960893854749E-3</v>
-      </c>
-      <c r="F41" s="13">
-        <f t="shared" si="32"/>
         <v>0.9972067039106145</v>
       </c>
       <c r="G41" s="1">
@@ -3834,7 +3836,7 @@
         <v>-1.1086626245216111</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-2.5526682161121932</v>
       </c>
       <c r="J41" s="1">
@@ -3843,15 +3845,15 @@
       </c>
       <c r="K41" s="1">
         <f t="shared" si="33"/>
-        <v>4.0211892990699383</v>
+        <v>4.3399480616943507</v>
       </c>
       <c r="L41" s="1">
         <f t="shared" si="39"/>
-        <v>6.5738524609714801</v>
+        <v>6.8926112235958925</v>
       </c>
       <c r="M41" s="5">
         <f t="shared" si="40"/>
-        <v>3748456.3761475896</v>
+        <v>7809284.1169741368</v>
       </c>
       <c r="N41" s="1">
         <v>0.85902880000000004</v>
@@ -3866,15 +3868,15 @@
         <v>17</v>
       </c>
       <c r="M42" s="5">
-        <f>AVERAGE(M31:M39)</f>
-        <v>248758.21859274618</v>
+        <f>AVERAGE(M31:M41)</f>
+        <v>1302982.7403812781</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="O42" s="5">
-        <f>AVERAGE(O31:O39)</f>
-        <v>428725.6945975197</v>
+        <f>AVERAGE(O31:O41)</f>
+        <v>1102425.7683070616</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -3882,14 +3884,14 @@
         <v>15</v>
       </c>
       <c r="M43" s="5">
-        <f>MIN(M31:M39)</f>
-        <v>4493.2428998121322</v>
+        <f>MIN(M31:M41)</f>
+        <v>9360.9227079419325</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O43" s="5">
-        <f>MIN(O31:O39)</f>
+        <f>MIN(O31:O41)</f>
         <v>-1599.2557446808532</v>
       </c>
     </row>
@@ -3898,15 +3900,15 @@
         <v>16</v>
       </c>
       <c r="M44" s="5">
-        <f>MAX(M31:M39)</f>
-        <v>979395.32996186707</v>
+        <f>MAX(M31:M41)</f>
+        <v>7809284.1169741368</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O44" s="5">
-        <f>MAX(O31:O39)</f>
-        <v>1734164.3900000001</v>
+        <f>MAX(O31:O41)</f>
+        <v>6689686.7800000003</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -4020,16 +4022,16 @@
         <v>0.33</v>
       </c>
       <c r="K49" s="1">
-        <f>LOG(10500)</f>
-        <v>4.0211892990699383</v>
+        <f>LOG($G$47)</f>
+        <v>4.4299298362406301</v>
       </c>
       <c r="L49" s="1">
         <f>-I49-J49+K49</f>
-        <v>3.5294055050541338</v>
+        <v>3.9381460422248256</v>
       </c>
       <c r="M49" s="5">
         <f>10^L49</f>
-        <v>3383.8063809868177</v>
+        <v>8672.5346208320243</v>
       </c>
       <c r="N49" s="1">
         <v>0.9347316</v>
@@ -4078,16 +4080,16 @@
         <v>0.1089</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" ref="K50:K62" si="48">LOG(10500)</f>
-        <v>4.0211892990699383</v>
+        <f t="shared" ref="K50:K62" si="48">LOG($G$47)</f>
+        <v>4.4299298362406301</v>
       </c>
       <c r="L50" s="1">
         <f t="shared" ref="L50:L59" si="49">-I50-J50+K50</f>
-        <v>4.1089212603333127</v>
+        <v>4.5176617975040045</v>
       </c>
       <c r="M50" s="5">
         <f t="shared" ref="M50:M59" si="50">10^L50</f>
-        <v>12850.536524483008</v>
+        <v>32935.313181939258</v>
       </c>
       <c r="N50" s="1">
         <v>0.9347316</v>
@@ -4137,15 +4139,15 @@
       </c>
       <c r="K51" s="1">
         <f t="shared" si="48"/>
-        <v>4.0211892990699383</v>
+        <v>4.4299298362406301</v>
       </c>
       <c r="L51" s="1">
         <f t="shared" si="49"/>
-        <v>4.6808686613983692</v>
+        <v>5.089609198569061</v>
       </c>
       <c r="M51" s="5">
         <f t="shared" si="50"/>
-        <v>47958.839039494072</v>
+        <v>122916.22070398334</v>
       </c>
       <c r="N51" s="1">
         <v>0.9347316</v>
@@ -4195,15 +4197,15 @@
       </c>
       <c r="K52" s="1">
         <f t="shared" si="48"/>
-        <v>4.0211892990699383</v>
+        <v>4.4299298362406301</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" si="49"/>
-        <v>5.0052393729677842</v>
+        <v>5.413979910138476</v>
       </c>
       <c r="M52" s="5">
         <f t="shared" si="50"/>
-        <v>101213.71668966961</v>
+        <v>259405.93617482847</v>
       </c>
       <c r="N52" s="1">
         <v>0.9347316</v>
@@ -4253,15 +4255,15 @@
       </c>
       <c r="K53" s="1">
         <f t="shared" si="48"/>
-        <v>4.0211892990699383</v>
+        <v>4.4299298362406301</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" si="49"/>
-        <v>5.379946689495605</v>
+        <v>5.7886872266662968</v>
       </c>
       <c r="M53" s="5">
         <f t="shared" si="50"/>
-        <v>239853.84756185798</v>
+        <v>614733.98968925443</v>
       </c>
       <c r="N53" s="1">
         <v>0.9347316</v>
@@ -4311,15 +4313,15 @@
       </c>
       <c r="K54" s="1">
         <f t="shared" si="48"/>
-        <v>4.0211892990699383</v>
+        <v>4.4299298362406301</v>
       </c>
       <c r="L54" s="1">
         <f t="shared" si="49"/>
-        <v>5.4592305249312005</v>
+        <v>5.8679710621018923</v>
       </c>
       <c r="M54" s="5">
         <f t="shared" si="50"/>
-        <v>287892.6152651998</v>
+        <v>737855.06375255156</v>
       </c>
       <c r="N54" s="1">
         <v>0.9347316</v>
@@ -4343,11 +4345,11 @@
         <f t="shared" si="45"/>
         <v>686</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="12">
         <f t="shared" si="46"/>
         <v>1.4577259475218658E-2</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="12">
         <f t="shared" si="47"/>
         <v>0.98542274052478129</v>
       </c>
@@ -4369,15 +4371,15 @@
       </c>
       <c r="K55" s="1">
         <f t="shared" si="48"/>
-        <v>4.0211892990699383</v>
+        <v>4.4299298362406301</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="49"/>
-        <v>5.8507098105818045</v>
+        <v>6.2594503477524963</v>
       </c>
       <c r="M55" s="5">
         <f t="shared" si="50"/>
-        <v>709103.79652276507</v>
+        <v>1817399.2636403935</v>
       </c>
       <c r="N55" s="1">
         <v>0.9347316</v>
@@ -4401,11 +4403,11 @@
         <f t="shared" si="45"/>
         <v>1221</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="12">
         <f t="shared" si="46"/>
         <v>9.8280098280098278E-3</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="12">
         <f t="shared" si="47"/>
         <v>0.9901719901719902</v>
       </c>
@@ -4427,15 +4429,15 @@
       </c>
       <c r="K56" s="1">
         <f t="shared" si="48"/>
-        <v>4.0211892990699383</v>
+        <v>4.4299298362406301</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" si="49"/>
-        <v>6.0242937130212617</v>
+        <v>6.4330342501919535</v>
       </c>
       <c r="M56" s="5">
         <f t="shared" si="50"/>
-        <v>1057532.4758138759</v>
+        <v>2710405.3768216395</v>
       </c>
       <c r="N56" s="1">
         <v>0.9347316</v>
@@ -4459,11 +4461,11 @@
         <f t="shared" si="45"/>
         <v>1044</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="12">
         <f t="shared" si="46"/>
         <v>6.7049808429118776E-3</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="12">
         <f t="shared" si="47"/>
         <v>0.99329501915708818</v>
       </c>
@@ -4485,15 +4487,15 @@
       </c>
       <c r="K57" s="1">
         <f t="shared" si="48"/>
-        <v>4.0211892990699383</v>
+        <v>4.4299298362406301</v>
       </c>
       <c r="L57" s="1">
         <f t="shared" si="49"/>
-        <v>6.1918236039603212</v>
+        <v>6.600564141131013</v>
       </c>
       <c r="M57" s="5">
         <f t="shared" si="50"/>
-        <v>1555333.7782089713</v>
+        <v>3986246.410036345</v>
       </c>
       <c r="N57" s="1">
         <v>0.9347316</v>
@@ -4517,11 +4519,11 @@
         <f t="shared" si="45"/>
         <v>1012</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="12">
         <f t="shared" si="46"/>
         <v>4.940711462450593E-3</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="12">
         <f t="shared" si="47"/>
         <v>0.99505928853754944</v>
       </c>
@@ -4543,15 +4545,15 @@
       </c>
       <c r="K58" s="1">
         <f t="shared" si="48"/>
-        <v>4.0211892990699383</v>
+        <v>4.4299298362406301</v>
       </c>
       <c r="L58" s="1">
         <f t="shared" si="49"/>
-        <v>6.3252334494976843</v>
+        <v>6.7339739866683761</v>
       </c>
       <c r="M58" s="5">
         <f t="shared" si="50"/>
-        <v>2114625.4244963834</v>
+        <v>5419684.2665354451</v>
       </c>
       <c r="N58" s="1">
         <v>0.9347316</v>
@@ -4575,11 +4577,11 @@
         <f t="shared" si="45"/>
         <v>654</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="12">
         <f t="shared" si="46"/>
         <v>3.0581039755351682E-3</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="12">
         <f t="shared" si="47"/>
         <v>0.99694189602446481</v>
       </c>
@@ -4601,15 +4603,15 @@
       </c>
       <c r="K59" s="1">
         <f t="shared" si="48"/>
-        <v>4.0211892990699383</v>
+        <v>4.4299298362406301</v>
       </c>
       <c r="L59" s="1">
         <f t="shared" si="49"/>
-        <v>6.5344018449272259</v>
+        <v>6.9431423820979177</v>
       </c>
       <c r="M59" s="5">
         <f t="shared" si="50"/>
-        <v>3422960.1642132066</v>
+        <v>8772883.9027753919</v>
       </c>
       <c r="N59" s="1">
         <v>0.9347316</v>
@@ -4633,11 +4635,11 @@
         <f t="shared" si="45"/>
         <v>511</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="12">
         <f t="shared" si="46"/>
         <v>1.9569471624266144E-3</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="12">
         <f t="shared" si="47"/>
         <v>0.99804305283757333</v>
       </c>
@@ -4659,15 +4661,15 @@
       </c>
       <c r="K60" s="1">
         <f t="shared" si="48"/>
-        <v>4.0211892990699383</v>
+        <v>4.4299298362406301</v>
       </c>
       <c r="L60" s="1">
         <f t="shared" ref="L60:L62" si="54">-I60-J60+K60</f>
-        <v>6.7287578072783596</v>
+        <v>7.1374983444490514</v>
       </c>
       <c r="M60" s="5">
         <f t="shared" ref="M60:M62" si="55">10^L60</f>
-        <v>5354979.4343894087</v>
+        <v>13724557.291319346</v>
       </c>
       <c r="N60" s="1">
         <v>0.9347316</v>
@@ -4691,11 +4693,11 @@
         <f t="shared" si="45"/>
         <v>715</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="12">
         <f t="shared" si="46"/>
         <v>1.3986013986013986E-3</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="12">
         <f t="shared" si="47"/>
         <v>0.99860139860139863</v>
       </c>
@@ -4717,15 +4719,15 @@
       </c>
       <c r="K61" s="1">
         <f t="shared" si="48"/>
-        <v>4.0211892990699383</v>
+        <v>4.4299298362406301</v>
       </c>
       <c r="L61" s="1">
         <f t="shared" si="54"/>
-        <v>6.8748869604425726</v>
+        <v>7.2836274976132644</v>
       </c>
       <c r="M61" s="5">
         <f t="shared" si="55"/>
-        <v>7496990.4986756854</v>
+        <v>19214429.648558225</v>
       </c>
       <c r="N61" s="1">
         <v>0.9347316</v>
@@ -4749,11 +4751,11 @@
         <f t="shared" si="45"/>
         <v>183</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E62" s="12">
         <f t="shared" si="46"/>
         <v>5.4644808743169399E-3</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F62" s="12">
         <f t="shared" si="47"/>
         <v>0.99453551912568305</v>
       </c>
@@ -4775,15 +4777,15 @@
       </c>
       <c r="K62" s="1">
         <f t="shared" si="48"/>
-        <v>4.0211892990699383</v>
+        <v>4.4299298362406301</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" si="54"/>
-        <v>6.2812605054218444</v>
+        <v>6.6900010425925363</v>
       </c>
       <c r="M62" s="5">
         <f t="shared" si="55"/>
-        <v>1910999.2007706161</v>
+        <v>4897799.9516131477</v>
       </c>
       <c r="N62" s="1">
         <v>0.9347316</v>
@@ -4798,15 +4800,15 @@
         <v>17</v>
       </c>
       <c r="M63" s="5">
-        <f>AVERAGE(M49:M57)</f>
-        <v>446124.82355636708</v>
+        <f>AVERAGE(M49:M62)</f>
+        <v>4451423.2263873806</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>17</v>
       </c>
       <c r="O63" s="5">
-        <f>AVERAGE(O49:O57)</f>
-        <v>1048588.2969135132</v>
+        <f>AVERAGE(O49:O62)</f>
+        <v>4138953.7287106751</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -4814,14 +4816,14 @@
         <v>15</v>
       </c>
       <c r="M64" s="5">
-        <f>MIN(M49:M57)</f>
-        <v>3383.8063809868177</v>
+        <f>MIN(M49:M62)</f>
+        <v>8672.5346208320243</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O64" s="5">
-        <f>MIN(O49:O57)</f>
+        <f>MIN(O49:O62)</f>
         <v>-7823.1891660000001</v>
       </c>
     </row>
@@ -4830,15 +4832,15 @@
         <v>16</v>
       </c>
       <c r="M65" s="5">
-        <f>MAX(M49:M57)</f>
-        <v>1555333.7782089713</v>
+        <f>MAX(M49:M62)</f>
+        <v>19214429.648558225</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O65" s="5">
-        <f>MAX(O49:O57)</f>
-        <v>3701314.1357468572</v>
+        <f>MAX(O49:O62)</f>
+        <v>17935202.768458799</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -4955,22 +4957,22 @@
         <v>0.33</v>
       </c>
       <c r="K70" s="1">
-        <f>LOG(10500)</f>
-        <v>4.0211892990699383</v>
+        <f>LOG($G$68)</f>
+        <v>4.4876190869363883</v>
       </c>
       <c r="L70" s="1">
         <f>-I70-J70+K70</f>
-        <v>3.863792230279798</v>
+        <v>4.3302220181462481</v>
       </c>
       <c r="M70" s="5">
         <f>10^L70</f>
-        <v>7307.8938474711958</v>
+        <v>21390.55328649329</v>
       </c>
       <c r="N70" s="1">
         <v>0.86055020000000004</v>
       </c>
       <c r="O70" s="1">
-        <f>(($G$68*N70*C70)/B70)-(N70*$G$68)</f>
+        <f t="shared" ref="O70:O78" si="60">(($G$68*N70*C70)/B70)-(N70*$G$68)</f>
         <v>12906.697125238399</v>
       </c>
     </row>
@@ -4985,15 +4987,15 @@
         <v>176</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" ref="D71:D78" si="60">SUM(B71:C71)</f>
+        <f t="shared" ref="D71:D78" si="61">SUM(B71:C71)</f>
         <v>220</v>
       </c>
       <c r="E71" s="3">
-        <f t="shared" ref="E71:E78" si="61">B71/D71</f>
+        <f t="shared" ref="E71:E78" si="62">B71/D71</f>
         <v>0.2</v>
       </c>
       <c r="F71" s="3">
-        <f t="shared" ref="F71:F78" si="62">C71/D71</f>
+        <f t="shared" ref="F71:F78" si="63">C71/D71</f>
         <v>0.8</v>
       </c>
       <c r="G71" s="1">
@@ -5013,22 +5015,22 @@
         <v>0.1089</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" ref="K71:K78" si="63">LOG(10500)</f>
-        <v>4.0211892990699383</v>
+        <f t="shared" ref="K71:K78" si="64">LOG($G$68)</f>
+        <v>4.4876190869363883</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" ref="L71:L78" si="64">-I71-J71+K71</f>
-        <v>4.5143492903979006</v>
+        <f t="shared" ref="L71:L78" si="65">-I71-J71+K71</f>
+        <v>4.9807790782643506</v>
       </c>
       <c r="M71" s="5">
-        <f t="shared" ref="M71:M78" si="65">10^L71</f>
-        <v>32685.060290532871</v>
+        <f t="shared" ref="M71:M78" si="66">10^L71</f>
+        <v>95670.727901832055</v>
       </c>
       <c r="N71" s="1">
         <v>0.86055020000000004</v>
       </c>
       <c r="O71" s="1">
-        <f>(($G$68*N71*C71)/B71)-(N71*$G$68)</f>
+        <f t="shared" si="60"/>
         <v>79344.449540400019</v>
       </c>
     </row>
@@ -5043,15 +5045,15 @@
         <v>118</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>123</v>
       </c>
       <c r="E72" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>4.065040650406504E-2</v>
       </c>
       <c r="F72" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.95934959349593496</v>
       </c>
       <c r="G72" s="1">
@@ -5071,22 +5073,22 @@
         <v>3.5937000000000004E-2</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="63"/>
-        <v>4.0211892990699383</v>
+        <f t="shared" si="64"/>
+        <v>4.4876190869363883</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="64"/>
-        <v>5.3581643020400449</v>
+        <f t="shared" si="65"/>
+        <v>5.824594089906495</v>
       </c>
       <c r="M72" s="5">
-        <f t="shared" si="65"/>
-        <v>228120.49329173326</v>
+        <f t="shared" si="66"/>
+        <v>667719.54674553568</v>
       </c>
       <c r="N72" s="1">
         <v>0.86055020000000004</v>
       </c>
       <c r="O72" s="1">
-        <f>(($G$68*N72*C72)/B72)-(N72*$G$68)</f>
+        <f t="shared" si="60"/>
         <v>597728.1865376801</v>
       </c>
     </row>
@@ -5101,15 +5103,15 @@
         <v>172</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>180</v>
       </c>
       <c r="E73" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.9555555555555556</v>
       </c>
       <c r="G73" s="1">
@@ -5129,22 +5131,22 @@
         <v>1.185921E-2</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="63"/>
-        <v>4.0211892990699383</v>
+        <f t="shared" si="64"/>
+        <v>4.4876190869363883</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" si="64"/>
-        <v>5.3417685489855433</v>
+        <f t="shared" si="65"/>
+        <v>5.8081983368519943</v>
       </c>
       <c r="M73" s="5">
-        <f t="shared" si="65"/>
-        <v>219668.88669556018</v>
+        <f t="shared" si="66"/>
+        <v>642981.2917810824</v>
       </c>
       <c r="N73" s="1">
         <v>0.86055020000000004</v>
       </c>
       <c r="O73" s="1">
-        <f>(($G$68*N73*C73)/B73)-(N73*$G$68)</f>
+        <f t="shared" si="60"/>
         <v>542187.07185940002</v>
       </c>
     </row>
@@ -5159,15 +5161,15 @@
         <v>206</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>213</v>
       </c>
       <c r="E74" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>3.2863849765258218E-2</v>
       </c>
       <c r="F74" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.96713615023474175</v>
       </c>
       <c r="G74" s="1">
@@ -5187,22 +5189,22 @@
         <v>3.9135393000000003E-3</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="63"/>
-        <v>4.0211892990699383</v>
+        <f t="shared" si="64"/>
+        <v>4.4876190869363883</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="64"/>
-        <v>5.4860449401248346</v>
+        <f t="shared" si="65"/>
+        <v>5.9524747279912846</v>
       </c>
       <c r="M74" s="5">
-        <f t="shared" si="65"/>
-        <v>306228.02973500313</v>
+        <f t="shared" si="66"/>
+        <v>896344.02532148536</v>
       </c>
       <c r="N74" s="1">
         <v>0.86055020000000004</v>
       </c>
       <c r="O74" s="1">
-        <f>(($G$68*N74*C74)/B74)-(N74*$G$68)</f>
+        <f t="shared" si="60"/>
         <v>751883.11707331426</v>
       </c>
     </row>
@@ -5217,15 +5219,15 @@
         <v>212</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>215</v>
       </c>
       <c r="E75" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.3953488372093023E-2</v>
       </c>
       <c r="F75" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.98604651162790702</v>
       </c>
       <c r="G75" s="1">
@@ -5245,22 +5247,22 @@
         <v>1.291467969E-3</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="63"/>
-        <v>4.0211892990699383</v>
+        <f t="shared" si="64"/>
+        <v>4.4876190869363883</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="64"/>
-        <v>5.8691124373100276</v>
+        <f t="shared" si="65"/>
+        <v>6.3355422251764777</v>
       </c>
       <c r="M75" s="5">
-        <f t="shared" si="65"/>
-        <v>739796.78104512091</v>
+        <f t="shared" si="66"/>
+        <v>2165420.4065372124</v>
       </c>
       <c r="N75" s="1">
         <v>0.86055020000000004</v>
       </c>
       <c r="O75" s="1">
-        <f>(($G$68*N75*C75)/B75)-(N75*$G$68)</f>
+        <f t="shared" si="60"/>
         <v>1842554.4393270668</v>
       </c>
     </row>
@@ -5275,15 +5277,15 @@
         <v>117</v>
       </c>
       <c r="D76" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>118</v>
       </c>
-      <c r="E76" s="13">
-        <f t="shared" si="61"/>
+      <c r="E76" s="12">
+        <f t="shared" si="62"/>
         <v>8.4745762711864406E-3</v>
       </c>
-      <c r="F76" s="13">
-        <f t="shared" si="62"/>
+      <c r="F76" s="12">
+        <f t="shared" si="63"/>
         <v>0.99152542372881358</v>
       </c>
       <c r="G76" s="1">
@@ -5303,22 +5305,22 @@
         <v>4.2618442976999999E-4</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="63"/>
-        <v>4.0211892990699383</v>
+        <f t="shared" si="64"/>
+        <v>4.4876190869363883</v>
       </c>
       <c r="L76" s="1">
-        <f t="shared" si="64"/>
-        <v>6.0889489763863303</v>
+        <f t="shared" si="65"/>
+        <v>6.5553787642527794</v>
       </c>
       <c r="M76" s="5">
-        <f t="shared" si="65"/>
-        <v>1227295.0324432475</v>
+        <f t="shared" si="66"/>
+        <v>3592351.002581975</v>
       </c>
       <c r="N76" s="1">
         <v>0.86055020000000004</v>
       </c>
       <c r="O76" s="1">
-        <f>(($G$68*N76*C76)/B76)-(N76*$G$68)</f>
+        <f t="shared" si="60"/>
         <v>3067985.3822288001</v>
       </c>
     </row>
@@ -5333,15 +5335,15 @@
         <v>149</v>
       </c>
       <c r="D77" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>150</v>
       </c>
-      <c r="E77" s="13">
-        <f t="shared" si="61"/>
+      <c r="E77" s="12">
+        <f t="shared" si="62"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="F77" s="13">
-        <f t="shared" si="62"/>
+      <c r="F77" s="12">
+        <f t="shared" si="63"/>
         <v>0.99333333333333329</v>
       </c>
       <c r="G77" s="1">
@@ -5361,22 +5363,22 @@
         <v>1.4064086182409999E-4</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="63"/>
-        <v>4.0211892990699383</v>
+        <f t="shared" si="64"/>
+        <v>4.4876190869363883</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" si="64"/>
-        <v>6.1942349266203882</v>
+        <f t="shared" si="65"/>
+        <v>6.6606647144868383</v>
       </c>
       <c r="M77" s="5">
-        <f t="shared" si="65"/>
-        <v>1563993.4381763507</v>
+        <f t="shared" si="66"/>
+        <v>4577883.2694201833</v>
       </c>
       <c r="N77" s="1">
         <v>0.86055020000000004</v>
       </c>
       <c r="O77" s="1">
-        <f>(($G$68*N77*C77)/B77)-(N77*$G$68)</f>
+        <f t="shared" si="60"/>
         <v>3914326.1773264003</v>
       </c>
     </row>
@@ -5391,15 +5393,15 @@
         <v>109</v>
       </c>
       <c r="D78" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>111</v>
       </c>
-      <c r="E78" s="13">
-        <f t="shared" si="61"/>
+      <c r="E78" s="12">
+        <f t="shared" si="62"/>
         <v>1.8018018018018018E-2</v>
       </c>
-      <c r="F78" s="13">
-        <f t="shared" si="62"/>
+      <c r="F78" s="12">
+        <f t="shared" si="63"/>
         <v>0.98198198198198194</v>
       </c>
       <c r="G78" s="1">
@@ -5419,22 +5421,22 @@
         <v>4.6411484401953045E-5</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="63"/>
-        <v>4.0211892990699383</v>
+        <f t="shared" si="64"/>
+        <v>4.4876190869363883</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="64"/>
-        <v>5.7575393898621785</v>
+        <f t="shared" si="65"/>
+        <v>6.2239691777286286</v>
       </c>
       <c r="M78" s="5">
-        <f t="shared" si="65"/>
-        <v>572188.84897465887</v>
+        <f t="shared" si="66"/>
+        <v>1674824.0080368717</v>
       </c>
       <c r="N78" s="1">
         <v>0.86055020000000004</v>
       </c>
       <c r="O78" s="1">
-        <f>(($G$68*N78*C78)/B78)-(N78*$G$68)</f>
+        <f t="shared" si="60"/>
         <v>1414976.0168038001</v>
       </c>
     </row>
@@ -5455,7 +5457,7 @@
       </c>
       <c r="M79" s="5">
         <f>AVERAGE(M70:M78)</f>
-        <v>544142.71827774204</v>
+        <v>1592731.6479569634</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>17</v>
@@ -5482,7 +5484,7 @@
       </c>
       <c r="M80" s="5">
         <f>MIN(M70:M78)</f>
-        <v>7307.8938474711958</v>
+        <v>21390.55328649329</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>15</v>
@@ -5509,7 +5511,7 @@
       </c>
       <c r="M81" s="5">
         <f>MAX(M70:M78)</f>
-        <v>1563993.4381763507</v>
+        <v>4577883.2694201833</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>16</v>
@@ -5645,32 +5647,32 @@
         <v>0.13978494623655913</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" ref="G86:G89" si="66">$B$2</f>
+        <f t="shared" ref="G86:G89" si="67">$B$2</f>
         <v>0.33</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" ref="H86:H89" si="67">LN(G86)</f>
+        <f t="shared" ref="H86:H89" si="68">LN(G86)</f>
         <v>-1.1086626245216111</v>
       </c>
       <c r="I86" s="1">
-        <f t="shared" ref="I86:I89" si="68">LOG(E86/F86)</f>
+        <f t="shared" ref="I86:I89" si="69">LOG(E86/F86)</f>
         <v>0.78914663468510682</v>
       </c>
       <c r="J86" s="1">
-        <f t="shared" ref="J86:J89" si="69">EXP(H86*A86)</f>
+        <f t="shared" ref="J86:J89" si="70">EXP(H86*A86)</f>
         <v>0.33</v>
       </c>
       <c r="K86" s="1">
-        <f>LOG(10500)</f>
-        <v>4.0211892990699383</v>
+        <f>LOG($G$84)</f>
+        <v>4.4894099945542694</v>
       </c>
       <c r="L86" s="1">
         <f>-I86-J86+K86</f>
-        <v>2.9020426643848314</v>
+        <v>3.3702633598691625</v>
       </c>
       <c r="M86" s="5">
         <f>10^L86</f>
-        <v>798.07308482128235</v>
+        <v>2345.6508067304389</v>
       </c>
       <c r="N86" s="1">
         <v>0.79050209999999999</v>
@@ -5691,50 +5693,50 @@
         <v>36</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" ref="D87:D89" si="70">SUM(B87:C87)</f>
+        <f t="shared" ref="D87:D89" si="71">SUM(B87:C87)</f>
         <v>68</v>
       </c>
       <c r="E87" s="3">
-        <f t="shared" ref="E87:E89" si="71">B87/D87</f>
+        <f t="shared" ref="E87:E89" si="72">B87/D87</f>
         <v>0.47058823529411764</v>
       </c>
       <c r="F87" s="3">
-        <f t="shared" ref="F87:F89" si="72">C87/D87</f>
+        <f t="shared" ref="F87:F89" si="73">C87/D87</f>
         <v>0.52941176470588236</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.33</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-1.1086626245216111</v>
       </c>
       <c r="I87" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>-5.1152522447381311E-2</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.1089</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" ref="K87:K89" si="73">LOG(10500)</f>
-        <v>4.0211892990699383</v>
+        <f t="shared" ref="K87:K89" si="74">LOG($G$84)</f>
+        <v>4.4894099945542694</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" ref="L87:L89" si="74">-I87-J87+K87</f>
-        <v>3.9634418215173195</v>
+        <f t="shared" ref="L87:L89" si="75">-I87-J87+K87</f>
+        <v>4.4316625170016506</v>
       </c>
       <c r="M87" s="5">
-        <f t="shared" ref="M87:M89" si="75">10^L87</f>
-        <v>9192.6732067123721</v>
+        <f t="shared" ref="M87:M89" si="76">10^L87</f>
+        <v>27018.579793557179</v>
       </c>
       <c r="N87" s="1">
         <v>0.79050209999999999</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" ref="O87:O89" si="76">(($G$84*N87*C87)/B87)-(N87*$G$84)</f>
+        <f t="shared" ref="O87:O89" si="77">(($G$84*N87*C87)/B87)-(N87*$G$84)</f>
         <v>3049.4606635125019</v>
       </c>
     </row>
@@ -5749,50 +5751,50 @@
         <v>28</v>
       </c>
       <c r="D88" s="1">
+        <f t="shared" si="71"/>
+        <v>40</v>
+      </c>
+      <c r="E88" s="3">
+        <f t="shared" si="72"/>
+        <v>0.3</v>
+      </c>
+      <c r="F88" s="3">
+        <f t="shared" si="73"/>
+        <v>0.7</v>
+      </c>
+      <c r="G88" s="1">
+        <f t="shared" si="67"/>
+        <v>0.33</v>
+      </c>
+      <c r="H88" s="1">
+        <f t="shared" si="68"/>
+        <v>-1.1086626245216111</v>
+      </c>
+      <c r="I88" s="1">
+        <f t="shared" si="69"/>
+        <v>-0.36797678529459438</v>
+      </c>
+      <c r="J88" s="1">
         <f t="shared" si="70"/>
-        <v>40</v>
-      </c>
-      <c r="E88" s="3">
-        <f t="shared" si="71"/>
-        <v>0.3</v>
-      </c>
-      <c r="F88" s="3">
-        <f t="shared" si="72"/>
-        <v>0.7</v>
-      </c>
-      <c r="G88" s="1">
-        <f t="shared" si="66"/>
-        <v>0.33</v>
-      </c>
-      <c r="H88" s="1">
-        <f t="shared" si="67"/>
-        <v>-1.1086626245216111</v>
-      </c>
-      <c r="I88" s="1">
-        <f t="shared" si="68"/>
-        <v>-0.36797678529459438</v>
-      </c>
-      <c r="J88" s="1">
-        <f t="shared" si="69"/>
         <v>3.5937000000000004E-2</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" si="73"/>
-        <v>4.0211892990699383</v>
+        <f t="shared" si="74"/>
+        <v>4.4894099945542694</v>
       </c>
       <c r="L88" s="1">
-        <f t="shared" si="74"/>
-        <v>4.3532290843645329</v>
+        <f t="shared" si="75"/>
+        <v>4.821449779848864</v>
       </c>
       <c r="M88" s="5">
-        <f t="shared" si="75"/>
-        <v>22554.286059917144</v>
+        <f t="shared" si="76"/>
+        <v>66290.268770962153</v>
       </c>
       <c r="N88" s="1">
         <v>0.79050209999999999</v>
       </c>
       <c r="O88" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>32527.580410799994</v>
       </c>
     </row>
@@ -5807,50 +5809,50 @@
         <v>6</v>
       </c>
       <c r="D89" s="1">
+        <f t="shared" si="71"/>
+        <v>7</v>
+      </c>
+      <c r="E89" s="3">
+        <f t="shared" si="72"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F89" s="3">
+        <f t="shared" si="73"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G89" s="1">
+        <f t="shared" si="67"/>
+        <v>0.33</v>
+      </c>
+      <c r="H89" s="1">
+        <f t="shared" si="68"/>
+        <v>-1.1086626245216111</v>
+      </c>
+      <c r="I89" s="1">
+        <f t="shared" si="69"/>
+        <v>-0.77815125038364363</v>
+      </c>
+      <c r="J89" s="1">
         <f t="shared" si="70"/>
-        <v>7</v>
-      </c>
-      <c r="E89" s="3">
-        <f t="shared" si="71"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F89" s="3">
-        <f t="shared" si="72"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="G89" s="1">
-        <f t="shared" si="66"/>
-        <v>0.33</v>
-      </c>
-      <c r="H89" s="1">
-        <f t="shared" si="67"/>
-        <v>-1.1086626245216111</v>
-      </c>
-      <c r="I89" s="1">
-        <f t="shared" si="68"/>
-        <v>-0.77815125038364363</v>
-      </c>
-      <c r="J89" s="1">
-        <f t="shared" si="69"/>
         <v>1.185921E-2</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="73"/>
-        <v>4.0211892990699383</v>
+        <f t="shared" si="74"/>
+        <v>4.4894099945542694</v>
       </c>
       <c r="L89" s="1">
-        <f t="shared" si="74"/>
-        <v>4.7874813394535822</v>
+        <f t="shared" si="75"/>
+        <v>5.2557020349379133</v>
       </c>
       <c r="M89" s="5">
-        <f t="shared" si="75"/>
-        <v>61302.945124342492</v>
+        <f t="shared" si="76"/>
+        <v>180178.11328403169</v>
       </c>
       <c r="N89" s="1">
         <v>0.79050209999999999</v>
       </c>
       <c r="O89" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>121978.4265405</v>
       </c>
     </row>
@@ -5871,7 +5873,7 @@
       </c>
       <c r="M90" s="5">
         <f>AVERAGE(M86:M89)</f>
-        <v>23461.994368948323</v>
+        <v>68958.15316382036</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>17</v>
@@ -5898,7 +5900,7 @@
       </c>
       <c r="M91" s="5">
         <f>MIN(M86:M89)</f>
-        <v>798.07308482128235</v>
+        <v>2345.6508067304389</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>15</v>
@@ -5925,7 +5927,7 @@
       </c>
       <c r="M92" s="5">
         <f>MAX(M86:M89)</f>
-        <v>61302.945124342492</v>
+        <v>180178.11328403169</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>16</v>
@@ -6064,38 +6066,38 @@
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" ref="G97:G107" si="77">$B$2</f>
+        <f t="shared" ref="G97:G107" si="78">$B$2</f>
         <v>0.33</v>
       </c>
       <c r="H97" s="1">
-        <f t="shared" ref="H97:H107" si="78">LN(G97)</f>
+        <f t="shared" ref="H97:H107" si="79">LN(G97)</f>
         <v>-1.1086626245216111</v>
       </c>
       <c r="I97" s="1">
-        <f t="shared" ref="I97:I107" si="79">LOG(E97/F97)</f>
+        <f t="shared" ref="I97:I107" si="80">LOG(E97/F97)</f>
         <v>1.3979400086720377</v>
       </c>
       <c r="J97" s="1">
-        <f t="shared" ref="J97:J107" si="80">EXP(H97*A97)</f>
+        <f t="shared" ref="J97:J107" si="81">EXP(H97*A97)</f>
         <v>0.33</v>
       </c>
       <c r="K97" s="1">
-        <f>LOG(10500)</f>
-        <v>4.0211892990699383</v>
+        <f>LOG($G$95)</f>
+        <v>4.4941685134903082</v>
       </c>
       <c r="L97" s="1">
         <f>-I97-J97+K97</f>
-        <v>2.2932492903979007</v>
+        <v>2.7662285048182707</v>
       </c>
       <c r="M97" s="5">
         <f>10^L97</f>
-        <v>196.4487593406235</v>
+        <v>583.75216573207524</v>
       </c>
       <c r="N97" s="1">
         <v>0.92620199999999997</v>
       </c>
       <c r="O97" s="1">
-        <f>(($G$95*N97*C97)/B97)-(N97*$G$95)</f>
+        <f t="shared" ref="O97:O107" si="82">(($G$95*N97*C97)/B97)-(N97*$G$95)</f>
         <v>-27742.491457920001</v>
       </c>
     </row>
@@ -6110,50 +6112,50 @@
         <v>2</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" ref="D98:D107" si="81">SUM(B98:C98)</f>
+        <f t="shared" ref="D98:D107" si="83">SUM(B98:C98)</f>
         <v>140</v>
       </c>
       <c r="E98" s="3">
-        <f t="shared" ref="E98:E107" si="82">B98/D98</f>
+        <f t="shared" ref="E98:E107" si="84">B98/D98</f>
         <v>0.98571428571428577</v>
       </c>
       <c r="F98" s="3">
-        <f t="shared" ref="F98:F107" si="83">C98/D98</f>
+        <f t="shared" ref="F98:F107" si="85">C98/D98</f>
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.33</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>-1.1086626245216111</v>
       </c>
       <c r="I98" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>1.8388490907372552</v>
       </c>
       <c r="J98" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.1089</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" ref="K98:K107" si="84">LOG(10500)</f>
-        <v>4.0211892990699383</v>
+        <f t="shared" ref="K98:K107" si="86">LOG($G$95)</f>
+        <v>4.4941685134903082</v>
       </c>
       <c r="L98" s="1">
-        <f t="shared" ref="L98:L107" si="85">-I98-J98+K98</f>
-        <v>2.0734402083326833</v>
+        <f t="shared" ref="L98:L107" si="87">-I98-J98+K98</f>
+        <v>2.5464194227530532</v>
       </c>
       <c r="M98" s="5">
-        <f t="shared" ref="M98:M107" si="86">10^L98</f>
-        <v>118.42413148743799</v>
+        <f t="shared" ref="M98:M107" si="88">10^L98</f>
+        <v>351.90012633710001</v>
       </c>
       <c r="N98" s="1">
         <v>0.92620199999999997</v>
       </c>
       <c r="O98" s="1">
-        <f>(($G$95*N98*C98)/B98)-(N98*$G$95)</f>
+        <f t="shared" si="82"/>
         <v>-28479.610796173914</v>
       </c>
     </row>
@@ -6168,50 +6170,50 @@
         <v>1</v>
       </c>
       <c r="D99" s="1">
+        <f t="shared" si="83"/>
+        <v>3</v>
+      </c>
+      <c r="E99" s="3">
+        <f t="shared" si="84"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F99" s="3">
+        <f t="shared" si="85"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G99" s="1">
+        <f t="shared" si="78"/>
+        <v>0.33</v>
+      </c>
+      <c r="H99" s="1">
+        <f t="shared" si="79"/>
+        <v>-1.1086626245216111</v>
+      </c>
+      <c r="I99" s="1">
+        <f t="shared" si="80"/>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="J99" s="1">
         <f t="shared" si="81"/>
-        <v>3</v>
-      </c>
-      <c r="E99" s="3">
-        <f t="shared" si="82"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F99" s="3">
-        <f t="shared" si="83"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G99" s="1">
-        <f t="shared" si="77"/>
-        <v>0.33</v>
-      </c>
-      <c r="H99" s="1">
-        <f t="shared" si="78"/>
-        <v>-1.1086626245216111</v>
-      </c>
-      <c r="I99" s="1">
-        <f t="shared" si="79"/>
-        <v>0.3010299956639812</v>
-      </c>
-      <c r="J99" s="1">
-        <f t="shared" si="80"/>
         <v>3.5937000000000004E-2</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" si="84"/>
-        <v>4.0211892990699383</v>
+        <f t="shared" si="86"/>
+        <v>4.4941685134903082</v>
       </c>
       <c r="L99" s="1">
-        <f t="shared" si="85"/>
-        <v>3.6842223034059569</v>
+        <f t="shared" si="87"/>
+        <v>4.1572015178263273</v>
       </c>
       <c r="M99" s="5">
-        <f t="shared" si="86"/>
-        <v>4833.0612985536691</v>
+        <f t="shared" si="88"/>
+        <v>14361.556721540293</v>
       </c>
       <c r="N99" s="1">
         <v>0.92620199999999997</v>
       </c>
       <c r="O99" s="1">
-        <f>(($G$95*N99*C99)/B99)-(N99*$G$95)</f>
+        <f t="shared" si="82"/>
         <v>-14449.214301</v>
       </c>
     </row>
@@ -6226,50 +6228,50 @@
         <v>1</v>
       </c>
       <c r="D100" s="1">
+        <f t="shared" si="83"/>
+        <v>9</v>
+      </c>
+      <c r="E100" s="3">
+        <f t="shared" si="84"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F100" s="3">
+        <f t="shared" si="85"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G100" s="1">
+        <f t="shared" si="78"/>
+        <v>0.33</v>
+      </c>
+      <c r="H100" s="1">
+        <f t="shared" si="79"/>
+        <v>-1.1086626245216111</v>
+      </c>
+      <c r="I100" s="1">
+        <f t="shared" si="80"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="J100" s="1">
         <f t="shared" si="81"/>
-        <v>9</v>
-      </c>
-      <c r="E100" s="3">
-        <f t="shared" si="82"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F100" s="3">
-        <f t="shared" si="83"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G100" s="1">
-        <f t="shared" si="77"/>
-        <v>0.33</v>
-      </c>
-      <c r="H100" s="1">
-        <f t="shared" si="78"/>
-        <v>-1.1086626245216111</v>
-      </c>
-      <c r="I100" s="1">
-        <f t="shared" si="79"/>
-        <v>0.90308998699194354</v>
-      </c>
-      <c r="J100" s="1">
-        <f t="shared" si="80"/>
         <v>1.185921E-2</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="84"/>
-        <v>4.0211892990699383</v>
+        <f t="shared" si="86"/>
+        <v>4.4941685134903082</v>
       </c>
       <c r="L100" s="1">
-        <f t="shared" si="85"/>
-        <v>3.1062401020779946</v>
+        <f t="shared" si="87"/>
+        <v>3.5792193164983646</v>
       </c>
       <c r="M100" s="5">
-        <f t="shared" si="86"/>
-        <v>1277.1446900904666</v>
+        <f t="shared" si="88"/>
+        <v>3795.0658548107226</v>
       </c>
       <c r="N100" s="1">
         <v>0.92620199999999997</v>
       </c>
       <c r="O100" s="1">
-        <f>(($G$95*N100*C100)/B100)-(N100*$G$95)</f>
+        <f t="shared" si="82"/>
         <v>-25286.12502675</v>
       </c>
     </row>
@@ -6284,50 +6286,50 @@
         <v>2</v>
       </c>
       <c r="D101" s="1">
+        <f t="shared" si="83"/>
+        <v>24</v>
+      </c>
+      <c r="E101" s="3">
+        <f t="shared" si="84"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F101" s="3">
+        <f t="shared" si="85"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G101" s="1">
+        <f t="shared" si="78"/>
+        <v>0.33</v>
+      </c>
+      <c r="H101" s="1">
+        <f t="shared" si="79"/>
+        <v>-1.1086626245216111</v>
+      </c>
+      <c r="I101" s="1">
+        <f t="shared" si="80"/>
+        <v>1.0413926851582251</v>
+      </c>
+      <c r="J101" s="1">
         <f t="shared" si="81"/>
-        <v>24</v>
-      </c>
-      <c r="E101" s="3">
-        <f t="shared" si="82"/>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F101" s="3">
-        <f t="shared" si="83"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="G101" s="1">
-        <f t="shared" si="77"/>
-        <v>0.33</v>
-      </c>
-      <c r="H101" s="1">
-        <f t="shared" si="78"/>
-        <v>-1.1086626245216111</v>
-      </c>
-      <c r="I101" s="1">
-        <f t="shared" si="79"/>
-        <v>1.0413926851582251</v>
-      </c>
-      <c r="J101" s="1">
-        <f t="shared" si="80"/>
         <v>3.9135393000000003E-3</v>
       </c>
       <c r="K101" s="1">
-        <f t="shared" si="84"/>
-        <v>4.0211892990699383</v>
+        <f t="shared" si="86"/>
+        <v>4.4941685134903082</v>
       </c>
       <c r="L101" s="1">
-        <f t="shared" si="85"/>
-        <v>2.9758830746117129</v>
+        <f t="shared" si="87"/>
+        <v>3.4488622890320828</v>
       </c>
       <c r="M101" s="5">
-        <f t="shared" si="86"/>
-        <v>945.98243960504044</v>
+        <f t="shared" si="88"/>
+        <v>2811.0093426777948</v>
       </c>
       <c r="N101" s="1">
         <v>0.92620199999999997</v>
       </c>
       <c r="O101" s="1">
-        <f>(($G$95*N101*C101)/B101)-(N101*$G$95)</f>
+        <f t="shared" si="82"/>
         <v>-26271.298729090908</v>
       </c>
     </row>
@@ -6342,50 +6344,50 @@
         <v>2</v>
       </c>
       <c r="D102" s="1">
+        <f t="shared" si="83"/>
+        <v>27</v>
+      </c>
+      <c r="E102" s="3">
+        <f t="shared" si="84"/>
+        <v>0.92592592592592593</v>
+      </c>
+      <c r="F102" s="3">
+        <f t="shared" si="85"/>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="G102" s="1">
+        <f t="shared" si="78"/>
+        <v>0.33</v>
+      </c>
+      <c r="H102" s="1">
+        <f t="shared" si="79"/>
+        <v>-1.1086626245216111</v>
+      </c>
+      <c r="I102" s="1">
+        <f t="shared" si="80"/>
+        <v>1.0969100130080565</v>
+      </c>
+      <c r="J102" s="1">
         <f t="shared" si="81"/>
-        <v>27</v>
-      </c>
-      <c r="E102" s="3">
-        <f t="shared" si="82"/>
-        <v>0.92592592592592593</v>
-      </c>
-      <c r="F102" s="3">
-        <f t="shared" si="83"/>
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="G102" s="1">
-        <f t="shared" si="77"/>
-        <v>0.33</v>
-      </c>
-      <c r="H102" s="1">
-        <f t="shared" si="78"/>
-        <v>-1.1086626245216111</v>
-      </c>
-      <c r="I102" s="1">
-        <f t="shared" si="79"/>
-        <v>1.0969100130080565</v>
-      </c>
-      <c r="J102" s="1">
-        <f t="shared" si="80"/>
         <v>1.291467969E-3</v>
       </c>
       <c r="K102" s="1">
-        <f t="shared" si="84"/>
-        <v>4.0211892990699383</v>
+        <f t="shared" si="86"/>
+        <v>4.4941685134903082</v>
       </c>
       <c r="L102" s="1">
-        <f t="shared" si="85"/>
-        <v>2.9229878180928819</v>
+        <f t="shared" si="87"/>
+        <v>3.3959670325132518</v>
       </c>
       <c r="M102" s="5">
-        <f t="shared" si="86"/>
-        <v>837.50578986239987</v>
+        <f t="shared" si="88"/>
+        <v>2488.6683951901637</v>
       </c>
       <c r="N102" s="1">
         <v>0.92620199999999997</v>
       </c>
       <c r="O102" s="1">
-        <f>(($G$95*N102*C102)/B102)-(N102*$G$95)</f>
+        <f t="shared" si="82"/>
         <v>-26586.554313839999</v>
       </c>
     </row>
@@ -6400,50 +6402,50 @@
         <v>2</v>
       </c>
       <c r="D103" s="4">
+        <f t="shared" si="83"/>
+        <v>9</v>
+      </c>
+      <c r="E103" s="12">
+        <f t="shared" si="84"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F103" s="12">
+        <f t="shared" si="85"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="G103" s="1">
+        <f t="shared" si="78"/>
+        <v>0.33</v>
+      </c>
+      <c r="H103" s="1">
+        <f t="shared" si="79"/>
+        <v>-1.1086626245216111</v>
+      </c>
+      <c r="I103" s="4">
+        <f t="shared" si="80"/>
+        <v>0.54406804435027567</v>
+      </c>
+      <c r="J103" s="1">
         <f t="shared" si="81"/>
-        <v>9</v>
-      </c>
-      <c r="E103" s="13">
-        <f t="shared" si="82"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="F103" s="13">
-        <f t="shared" si="83"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="G103" s="1">
-        <f t="shared" si="77"/>
-        <v>0.33</v>
-      </c>
-      <c r="H103" s="1">
-        <f t="shared" si="78"/>
-        <v>-1.1086626245216111</v>
-      </c>
-      <c r="I103" s="4">
-        <f t="shared" si="79"/>
-        <v>0.54406804435027567</v>
-      </c>
-      <c r="J103" s="1">
-        <f t="shared" si="80"/>
         <v>4.2618442976999999E-4</v>
       </c>
       <c r="K103" s="1">
-        <f t="shared" si="84"/>
-        <v>4.0211892990699383</v>
+        <f t="shared" si="86"/>
+        <v>4.4941685134903082</v>
       </c>
       <c r="L103" s="1">
-        <f t="shared" si="85"/>
-        <v>3.4766950702898924</v>
+        <f t="shared" si="87"/>
+        <v>3.9496742847102624</v>
       </c>
       <c r="M103" s="5">
-        <f t="shared" si="86"/>
-        <v>2997.0574662838703</v>
+        <f t="shared" si="88"/>
+        <v>8905.8276195736253</v>
       </c>
       <c r="N103" s="1">
         <v>0.92620199999999997</v>
       </c>
       <c r="O103" s="1">
-        <f>(($G$95*N103*C103)/B103)-(N103*$G$95)</f>
+        <f t="shared" si="82"/>
         <v>-20641.734715714287</v>
       </c>
     </row>
@@ -6458,50 +6460,50 @@
         <v>4</v>
       </c>
       <c r="D104" s="4">
+        <f t="shared" si="83"/>
+        <v>22</v>
+      </c>
+      <c r="E104" s="12">
+        <f t="shared" si="84"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="F104" s="12">
+        <f t="shared" si="85"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="G104" s="1">
+        <f t="shared" si="78"/>
+        <v>0.33</v>
+      </c>
+      <c r="H104" s="1">
+        <f t="shared" si="79"/>
+        <v>-1.1086626245216111</v>
+      </c>
+      <c r="I104" s="4">
+        <f t="shared" si="80"/>
+        <v>0.65321251377534373</v>
+      </c>
+      <c r="J104" s="1">
         <f t="shared" si="81"/>
-        <v>22</v>
-      </c>
-      <c r="E104" s="13">
-        <f t="shared" si="82"/>
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="F104" s="13">
-        <f t="shared" si="83"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="G104" s="1">
-        <f t="shared" si="77"/>
-        <v>0.33</v>
-      </c>
-      <c r="H104" s="1">
-        <f t="shared" si="78"/>
-        <v>-1.1086626245216111</v>
-      </c>
-      <c r="I104" s="4">
-        <f t="shared" si="79"/>
-        <v>0.65321251377534373</v>
-      </c>
-      <c r="J104" s="1">
-        <f t="shared" si="80"/>
         <v>1.4064086182409999E-4</v>
       </c>
       <c r="K104" s="1">
-        <f t="shared" si="84"/>
-        <v>4.0211892990699383</v>
+        <f t="shared" si="86"/>
+        <v>4.4941685134903082</v>
       </c>
       <c r="L104" s="1">
-        <f t="shared" si="85"/>
-        <v>3.3678361444327702</v>
+        <f t="shared" si="87"/>
+        <v>3.8408153588531402</v>
       </c>
       <c r="M104" s="5">
-        <f t="shared" si="86"/>
-        <v>2332.5778347149117</v>
+        <f t="shared" si="88"/>
+        <v>6931.3105734228429</v>
       </c>
       <c r="N104" s="1">
         <v>0.92620199999999997</v>
       </c>
       <c r="O104" s="1">
-        <f>(($G$95*N104*C104)/B104)-(N104*$G$95)</f>
+        <f t="shared" si="82"/>
         <v>-22476.555579333333</v>
       </c>
     </row>
@@ -6516,50 +6518,50 @@
         <v>4</v>
       </c>
       <c r="D105" s="4">
+        <f t="shared" si="83"/>
+        <v>10</v>
+      </c>
+      <c r="E105" s="12">
+        <f t="shared" si="84"/>
+        <v>0.6</v>
+      </c>
+      <c r="F105" s="12">
+        <f t="shared" si="85"/>
+        <v>0.4</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="78"/>
+        <v>0.33</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="79"/>
+        <v>-1.1086626245216111</v>
+      </c>
+      <c r="I105" s="4">
+        <f t="shared" si="80"/>
+        <v>0.17609125905568118</v>
+      </c>
+      <c r="J105" s="1">
         <f t="shared" si="81"/>
-        <v>10</v>
-      </c>
-      <c r="E105" s="13">
-        <f t="shared" si="82"/>
-        <v>0.6</v>
-      </c>
-      <c r="F105" s="13">
-        <f t="shared" si="83"/>
-        <v>0.4</v>
-      </c>
-      <c r="G105" s="1">
-        <f t="shared" si="77"/>
-        <v>0.33</v>
-      </c>
-      <c r="H105" s="1">
-        <f t="shared" si="78"/>
-        <v>-1.1086626245216111</v>
-      </c>
-      <c r="I105" s="4">
-        <f t="shared" si="79"/>
-        <v>0.17609125905568118</v>
-      </c>
-      <c r="J105" s="1">
-        <f t="shared" si="80"/>
         <v>4.6411484401953045E-5</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="84"/>
-        <v>4.0211892990699383</v>
+        <f t="shared" si="86"/>
+        <v>4.4941685134903082</v>
       </c>
       <c r="L105" s="1">
-        <f t="shared" si="85"/>
-        <v>3.845051628529855</v>
+        <f t="shared" si="87"/>
+        <v>4.3180308429502254</v>
       </c>
       <c r="M105" s="5">
-        <f t="shared" si="86"/>
-        <v>6999.2519752251792</v>
+        <f t="shared" si="88"/>
+        <v>20798.443893238178</v>
       </c>
       <c r="N105" s="1">
         <v>0.92620199999999997</v>
       </c>
       <c r="O105" s="1">
-        <f>(($G$95*N105*C105)/B105)-(N105*$G$95)</f>
+        <f t="shared" si="82"/>
         <v>-9632.809534</v>
       </c>
     </row>
@@ -6574,50 +6576,50 @@
         <v>2</v>
       </c>
       <c r="D106" s="4">
+        <f t="shared" si="83"/>
+        <v>3</v>
+      </c>
+      <c r="E106" s="12">
+        <f t="shared" si="84"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F106" s="12">
+        <f t="shared" si="85"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G106" s="1">
+        <f t="shared" si="78"/>
+        <v>0.33</v>
+      </c>
+      <c r="H106" s="1">
+        <f t="shared" si="79"/>
+        <v>-1.1086626245216111</v>
+      </c>
+      <c r="I106" s="4">
+        <f t="shared" si="80"/>
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="J106" s="1">
         <f t="shared" si="81"/>
-        <v>3</v>
-      </c>
-      <c r="E106" s="13">
-        <f t="shared" si="82"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F106" s="13">
-        <f t="shared" si="83"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G106" s="1">
-        <f t="shared" si="77"/>
-        <v>0.33</v>
-      </c>
-      <c r="H106" s="1">
-        <f t="shared" si="78"/>
-        <v>-1.1086626245216111</v>
-      </c>
-      <c r="I106" s="4">
-        <f t="shared" si="79"/>
-        <v>-0.3010299956639812</v>
-      </c>
-      <c r="J106" s="1">
-        <f t="shared" si="80"/>
         <v>1.531578985264449E-5</v>
       </c>
       <c r="K106" s="1">
-        <f t="shared" si="84"/>
-        <v>4.0211892990699383</v>
+        <f t="shared" si="86"/>
+        <v>4.4941685134903082</v>
       </c>
       <c r="L106" s="1">
-        <f t="shared" si="85"/>
-        <v>4.3222039789440672</v>
+        <f t="shared" si="87"/>
+        <v>4.7951831933644371</v>
       </c>
       <c r="M106" s="5">
-        <f t="shared" si="86"/>
-        <v>20999.259428961122</v>
+        <f t="shared" si="88"/>
+        <v>62399.799375525341</v>
       </c>
       <c r="N106" s="1">
         <v>0.92620199999999997</v>
       </c>
       <c r="O106" s="1">
-        <f>(($G$95*N106*C106)/B106)-(N106*$G$95)</f>
+        <f t="shared" si="82"/>
         <v>28898.428602</v>
       </c>
     </row>
@@ -6632,50 +6634,50 @@
         <v>3</v>
       </c>
       <c r="D107" s="4">
+        <f t="shared" si="83"/>
+        <v>6</v>
+      </c>
+      <c r="E107" s="12">
+        <f t="shared" si="84"/>
+        <v>0.5</v>
+      </c>
+      <c r="F107" s="12">
+        <f t="shared" si="85"/>
+        <v>0.5</v>
+      </c>
+      <c r="G107" s="1">
+        <f t="shared" si="78"/>
+        <v>0.33</v>
+      </c>
+      <c r="H107" s="1">
+        <f t="shared" si="79"/>
+        <v>-1.1086626245216111</v>
+      </c>
+      <c r="I107" s="4">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="1">
         <f t="shared" si="81"/>
-        <v>6</v>
-      </c>
-      <c r="E107" s="13">
-        <f t="shared" si="82"/>
-        <v>0.5</v>
-      </c>
-      <c r="F107" s="13">
-        <f t="shared" si="83"/>
-        <v>0.5</v>
-      </c>
-      <c r="G107" s="1">
-        <f t="shared" si="77"/>
-        <v>0.33</v>
-      </c>
-      <c r="H107" s="1">
-        <f t="shared" si="78"/>
-        <v>-1.1086626245216111</v>
-      </c>
-      <c r="I107" s="4">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="1">
-        <f t="shared" si="80"/>
         <v>5.0542106513726772E-6</v>
       </c>
       <c r="K107" s="1">
-        <f t="shared" si="84"/>
-        <v>4.0211892990699383</v>
+        <f t="shared" si="86"/>
+        <v>4.4941685134903082</v>
       </c>
       <c r="L107" s="1">
-        <f t="shared" si="85"/>
-        <v>4.0211842448592865</v>
+        <f t="shared" si="87"/>
+        <v>4.4941634592796564</v>
       </c>
       <c r="M107" s="5">
-        <f t="shared" si="86"/>
-        <v>10499.877804334961</v>
+        <f t="shared" si="88"/>
+        <v>31200.636892671922</v>
       </c>
       <c r="N107" s="1">
         <v>0.92620199999999997</v>
       </c>
       <c r="O107" s="1">
-        <f>(($G$95*N107*C107)/B107)-(N107*$G$95)</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
     </row>
@@ -6684,15 +6686,15 @@
         <v>17</v>
       </c>
       <c r="M108" s="5">
-        <f>AVERAGE(M97:M105)</f>
-        <v>2281.9393761292886</v>
+        <f>AVERAGE(M97:M107)</f>
+        <v>14057.088269156369</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>17</v>
       </c>
       <c r="O108" s="5">
-        <f>AVERAGE(O97:O105)</f>
-        <v>-22396.266050424718</v>
+        <f>AVERAGE(O97:O107)</f>
+        <v>-15697.087804711133</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
@@ -6700,14 +6702,14 @@
         <v>15</v>
       </c>
       <c r="M109" s="5">
-        <f>MIN(M97:M105)</f>
-        <v>118.42413148743799</v>
+        <f>MIN(M97:M107)</f>
+        <v>351.90012633710001</v>
       </c>
       <c r="N109" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O109" s="5">
-        <f>MIN(O97:O105)</f>
+        <f>MIN(O97:O107)</f>
         <v>-28479.610796173914</v>
       </c>
     </row>
@@ -6716,15 +6718,15 @@
         <v>16</v>
       </c>
       <c r="M110" s="5">
-        <f>MAX(M97:M105)</f>
-        <v>6999.2519752251792</v>
+        <f>MAX(M97:M107)</f>
+        <v>62399.799375525341</v>
       </c>
       <c r="N110" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O110" s="5">
-        <f>MAX(O97:O105)</f>
-        <v>-9632.809534</v>
+        <f>MAX(O97:O107)</f>
+        <v>28898.428602</v>
       </c>
     </row>
   </sheetData>
